--- a/data/July-Sep 2022/Child Health (Jan 2018 - Oct 2022).xlsx
+++ b/data/July-Sep 2022/Child Health (Jan 2018 - Oct 2022).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\Zambia E4 Health\data\July-Sep 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D92722-7E15-45BC-8A74-12E5B470BAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DDAD70-A19E-4C78-B53C-BA34D9E43E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28815" yWindow="15" windowWidth="19320" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="30" windowWidth="27240" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2453,9 +2453,6 @@
     <t>inst_deliv</t>
   </si>
   <si>
-    <t>post_48</t>
-  </si>
-  <si>
     <t>neon_dth</t>
   </si>
   <si>
@@ -2474,9 +2471,6 @@
     <t>dptfirst1</t>
   </si>
   <si>
-    <t>vitaAsupp</t>
-  </si>
-  <si>
     <t>deworm</t>
   </si>
   <si>
@@ -2496,6 +2490,12 @@
   </si>
   <si>
     <t>ebf</t>
+  </si>
+  <si>
+    <t>pnc</t>
+  </si>
+  <si>
+    <t>vitAsupp</t>
   </si>
 </sst>
 </file>
@@ -6717,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6815,22 +6815,22 @@
         <v>809</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>814</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>815</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>806</v>
@@ -6839,31 +6839,31 @@
         <v>807</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
